--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/32.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/1_fold/32.xlsx
@@ -479,13 +479,13 @@
         <v>-0.3119554755873705</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.605386060209808</v>
+        <v>-1.605661513556035</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0616206017104002</v>
+        <v>0.06181263204319889</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1868367425677921</v>
+        <v>-0.1865109206096828</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.3238284894709427</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.540700957410395</v>
+        <v>-1.540652162817635</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08751321625579651</v>
+        <v>0.08762497161340886</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1881762328400189</v>
+        <v>-0.1878755951878505</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.346225969932086</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.64706608654185</v>
+        <v>-1.646671794751964</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1001714780292966</v>
+        <v>0.1002454569279978</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1858230742536744</v>
+        <v>-0.185423273396864</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3695023757520338</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.695175980984405</v>
+        <v>-1.694653406636134</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1427124928206903</v>
+        <v>0.1428069339679684</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2167352357768986</v>
+        <v>-0.2163889515702125</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3851425099087583</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.781802123325189</v>
+        <v>-1.781399174430136</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2304908171582658</v>
+        <v>0.2305207235215705</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2656982485831991</v>
+        <v>-0.2651158615083179</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3871171725824388</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.708511070980065</v>
+        <v>-1.708445749186531</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3043201840428745</v>
+        <v>0.304442957534336</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2764629653537745</v>
+        <v>-0.2760962188985115</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.374467747603644</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.538643714418855</v>
+        <v>-1.538499691669256</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3746678206311662</v>
+        <v>0.374724485319533</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2790663929804059</v>
+        <v>-0.2786728882000807</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.3501548051174428</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.182508509062044</v>
+        <v>-1.182266110117363</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4047268637906454</v>
+        <v>0.4046733471405212</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2748464477161987</v>
+        <v>-0.2745316438919386</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.3181815816026904</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.7847404979468288</v>
+        <v>-0.7840825579541251</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4435201390542222</v>
+        <v>0.443257277860965</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2353637520774923</v>
+        <v>-0.2349450629912263</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.2805106866668243</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.2590889422928576</v>
+        <v>-0.2582452680438403</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4146510543504462</v>
+        <v>0.413974226128287</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1775547518094819</v>
+        <v>-0.1770778240157278</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2369081061199106</v>
       </c>
       <c r="E12" t="n">
-        <v>0.3122595364907152</v>
+        <v>0.313394404277173</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2882872252733057</v>
+        <v>0.2873270736093123</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1235910802548091</v>
+        <v>-0.1229221221282563</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.1882016063285232</v>
       </c>
       <c r="E13" t="n">
-        <v>0.894778828978159</v>
+        <v>0.8961671138431462</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09260831615144684</v>
+        <v>0.09147502238411034</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.010242815291704</v>
+        <v>-0.009628947834396733</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.1354476078036154</v>
       </c>
       <c r="E14" t="n">
-        <v>1.598843878012442</v>
+        <v>1.60064455588721</v>
       </c>
       <c r="F14" t="n">
-        <v>0.01109930997401203</v>
+        <v>0.009638620229444988</v>
       </c>
       <c r="G14" t="n">
-        <v>0.08749432802634091</v>
+        <v>0.08810347342628427</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-0.07913908973865144</v>
       </c>
       <c r="E15" t="n">
-        <v>2.26415500226118</v>
+        <v>2.265625136120475</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.131777553704694</v>
+        <v>-0.133431847801181</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2044093203183134</v>
+        <v>0.2051302210758691</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-0.02068976492641085</v>
       </c>
       <c r="E16" t="n">
-        <v>2.864660611247727</v>
+        <v>2.866179539699782</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.2581256425906215</v>
+        <v>-0.2600994625687326</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3081182921825731</v>
+        <v>0.308928912030043</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.03903689753653732</v>
       </c>
       <c r="E17" t="n">
-        <v>3.401169750800431</v>
+        <v>3.402890153700012</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.3706443994768012</v>
+        <v>-0.3729330232791724</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3932853187979107</v>
+        <v>0.3941415851998983</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.1010676464642236</v>
       </c>
       <c r="E18" t="n">
-        <v>3.873842970869663</v>
+        <v>3.875675129126857</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5498732347619466</v>
+        <v>-0.5524782364076992</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4898041713160689</v>
+        <v>0.4908540420699765</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.1656766468497467</v>
       </c>
       <c r="E19" t="n">
-        <v>4.249647906175809</v>
+        <v>4.251344698788571</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7516719302274226</v>
+        <v>-0.7544374818235479</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6118221335992983</v>
+        <v>0.6131301434890991</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.2349800468567394</v>
       </c>
       <c r="E20" t="n">
-        <v>4.525342077328988</v>
+        <v>4.527070350324176</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.9596872142124756</v>
+        <v>-0.9625991495868819</v>
       </c>
       <c r="G20" t="n">
-        <v>0.7183910982069612</v>
+        <v>0.719645591446638</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.3127878545022256</v>
       </c>
       <c r="E21" t="n">
-        <v>4.733959423627939</v>
+        <v>4.736032406810692</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.080508134953956</v>
+        <v>-1.083624692814131</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8614190677213122</v>
+        <v>0.8624531982840067</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.4027130146050236</v>
       </c>
       <c r="E22" t="n">
-        <v>4.880643839561071</v>
+        <v>4.882584605137635</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.248230103452832</v>
+        <v>-1.251197916506045</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9626253491827038</v>
+        <v>0.9637271625676143</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.5056704057216405</v>
       </c>
       <c r="E23" t="n">
-        <v>4.926945186033252</v>
+        <v>4.928800954577266</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.499251524879624</v>
+        <v>-1.502224846999761</v>
       </c>
       <c r="G23" t="n">
-        <v>1.015909044476975</v>
+        <v>1.017139927429832</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6185428340597294</v>
       </c>
       <c r="E24" t="n">
-        <v>4.976699930457567</v>
+        <v>4.978635973976766</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.707108619942986</v>
+        <v>-1.709988287925406</v>
       </c>
       <c r="G24" t="n">
-        <v>1.11281195766073</v>
+        <v>1.114086913148984</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.7353811218150174</v>
       </c>
       <c r="E25" t="n">
-        <v>4.943023791357339</v>
+        <v>4.945093626501849</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.868580158511178</v>
+        <v>-1.871617228405727</v>
       </c>
       <c r="G25" t="n">
-        <v>1.159980588668748</v>
+        <v>1.16116897310533</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.8495578517524485</v>
       </c>
       <c r="E26" t="n">
-        <v>4.931385493974441</v>
+        <v>4.933393942373221</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.930387954356852</v>
+        <v>-1.933589509249578</v>
       </c>
       <c r="G26" t="n">
-        <v>1.189164477196784</v>
+        <v>1.190330825365668</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.9553034548648535</v>
       </c>
       <c r="E27" t="n">
-        <v>4.836923884447823</v>
+        <v>4.838985849496727</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.017021966793242</v>
+        <v>-2.0203108797472</v>
       </c>
       <c r="G27" t="n">
-        <v>1.209283589605249</v>
+        <v>1.210432623563799</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.047218598657731</v>
       </c>
       <c r="E28" t="n">
-        <v>4.719692514312469</v>
+        <v>4.72160494754485</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.082246958151261</v>
+        <v>-2.085520130914006</v>
       </c>
       <c r="G28" t="n">
-        <v>1.197613811839926</v>
+        <v>1.198775437951446</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.120192268245828</v>
       </c>
       <c r="E29" t="n">
-        <v>4.59688754246859</v>
+        <v>4.598743311012603</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.175431251160943</v>
+        <v>-2.178389620099428</v>
       </c>
       <c r="G29" t="n">
-        <v>1.162873635813699</v>
+        <v>1.16387943403221</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.17165641166229</v>
       </c>
       <c r="E30" t="n">
-        <v>4.493073111323203</v>
+        <v>4.49481240245224</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.177918201372599</v>
+        <v>-2.180808100479307</v>
       </c>
       <c r="G30" t="n">
-        <v>1.116111101738976</v>
+        <v>1.117239673448949</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.200015601721206</v>
       </c>
       <c r="E31" t="n">
-        <v>4.30578844617524</v>
+        <v>4.307201915346169</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.142255650141289</v>
+        <v>-2.144799265041311</v>
       </c>
       <c r="G31" t="n">
-        <v>1.049824434483641</v>
+        <v>1.050877453275791</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.204919541391378</v>
       </c>
       <c r="E32" t="n">
-        <v>4.120088818282428</v>
+        <v>4.12124100027922</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.060419247986624</v>
+        <v>-2.062875504825413</v>
       </c>
       <c r="G32" t="n">
-        <v>1.022767045788482</v>
+        <v>1.023771269987872</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.187614894309337</v>
       </c>
       <c r="E33" t="n">
-        <v>3.904095618381062</v>
+        <v>3.905101416599574</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.004345603799847</v>
+        <v>-2.006550804588789</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9408062961232336</v>
+        <v>0.9415885836265201</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.149866163332621</v>
       </c>
       <c r="E34" t="n">
-        <v>3.689961335061953</v>
+        <v>3.69072001227842</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.904951018347073</v>
+        <v>-1.907224688967792</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8500310393787017</v>
+        <v>0.8508573994173846</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.092993677820753</v>
       </c>
       <c r="E35" t="n">
-        <v>3.451034676563236</v>
+        <v>3.451923997366771</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.841217410106486</v>
+        <v>-1.843506033908858</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7804058775670871</v>
+        <v>0.7811015940187019</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.019548689245673</v>
       </c>
       <c r="E36" t="n">
-        <v>3.217100806717285</v>
+        <v>3.217939758908939</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.759474662089539</v>
+        <v>-1.761657826610783</v>
       </c>
       <c r="G36" t="n">
-        <v>0.727372451313103</v>
+        <v>0.7279328021202861</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.9346899598271453</v>
       </c>
       <c r="E37" t="n">
-        <v>3.031086375000213</v>
+        <v>3.031939493363958</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.684827592271414</v>
+        <v>-1.687118577102467</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6662627329477251</v>
+        <v>0.6668750263859111</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.8440460400718151</v>
       </c>
       <c r="E38" t="n">
-        <v>2.796806220947576</v>
+        <v>2.79763415500538</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.616647380013153</v>
+        <v>-1.618723511234149</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5861703439794609</v>
+        <v>0.5867968035897386</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.752561530023061</v>
       </c>
       <c r="E39" t="n">
-        <v>2.548448039874025</v>
+        <v>2.549286992065679</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.565988361603651</v>
+        <v>-1.568049539642995</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5284069902659683</v>
+        <v>0.5288839180597223</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.6661255872124299</v>
       </c>
       <c r="E40" t="n">
-        <v>2.302535884514977</v>
+        <v>2.303233174985713</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.495894142093889</v>
+        <v>-1.497861665995515</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5011528491806468</v>
+        <v>0.5016313509935223</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.5888395013496099</v>
       </c>
       <c r="E41" t="n">
-        <v>2.100992180147151</v>
+        <v>2.101684748560523</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.472513662066089</v>
+        <v>-1.474314339940857</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4279625340592862</v>
+        <v>0.4285496431915313</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.5222544616203191</v>
       </c>
       <c r="E42" t="n">
-        <v>1.896347658110364</v>
+        <v>1.896879676573363</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.437217070280482</v>
+        <v>-1.438822569784208</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4116289376375489</v>
+        <v>0.4121121615077882</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.4679601921643254</v>
       </c>
       <c r="E43" t="n">
-        <v>1.751218373069076</v>
+        <v>1.751778723876259</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.402339954590701</v>
+        <v>-1.40391161268332</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3663412594794855</v>
+        <v>0.3667945769864202</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.4253637245740082</v>
       </c>
       <c r="E44" t="n">
-        <v>1.516143339360182</v>
+        <v>1.516766650932218</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.362233947379959</v>
+        <v>-1.363685980019359</v>
       </c>
       <c r="G44" t="n">
-        <v>0.3132543165753773</v>
+        <v>0.3137155041779184</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.3922168011112778</v>
       </c>
       <c r="E45" t="n">
-        <v>1.317742951177595</v>
+        <v>1.318492184279334</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.307561967220701</v>
+        <v>-1.309017934907905</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2962045414534482</v>
+        <v>0.2966248045588355</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.3668082477987247</v>
       </c>
       <c r="E46" t="n">
-        <v>1.158291666151592</v>
+        <v>1.159081823750485</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.262572565686124</v>
+        <v>-1.26403089440201</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2733057112767658</v>
+        <v>0.2737558807454578</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.347505056899391</v>
       </c>
       <c r="E47" t="n">
-        <v>1.011383739503235</v>
+        <v>1.012137694662338</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.184325714137585</v>
+        <v>-1.185886354096355</v>
       </c>
       <c r="G47" t="n">
-        <v>0.2441989496856735</v>
+        <v>0.2444885692039928</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3316247775492367</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8633724254508464</v>
+        <v>0.8640697159215825</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.165604330708835</v>
+        <v>-1.167079186625494</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2047414383529078</v>
+        <v>0.2050452240433189</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.3168234872472553</v>
       </c>
       <c r="E49" t="n">
-        <v>0.7331144730676079</v>
+        <v>0.7337047302380957</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.084499847445574</v>
+        <v>-1.085992804582128</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1650084736739146</v>
+        <v>0.1652005040067133</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.3016468140209448</v>
       </c>
       <c r="E50" t="n">
-        <v>0.6001995764076139</v>
+        <v>0.6010290844845394</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.027179580114728</v>
+        <v>-1.028628464715885</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1224107941941541</v>
+        <v>0.1225603260106776</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.2847789670043829</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4822221212087635</v>
+        <v>0.483031167037112</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.9657723721354241</v>
+        <v>-0.9672314878608698</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1020492828410084</v>
+        <v>0.1022318690590792</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.265441036601595</v>
       </c>
       <c r="E52" t="n">
-        <v>0.3634513603727775</v>
+        <v>0.3644099380176496</v>
       </c>
       <c r="F52" t="n">
-        <v>-0.9393272768784512</v>
+        <v>-0.9407218578199237</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05998204780512618</v>
+        <v>0.06014259775549886</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.2441105766469037</v>
       </c>
       <c r="E53" t="n">
-        <v>0.2038269332434322</v>
+        <v>0.2048421755766711</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.9202800714915916</v>
+        <v>-0.9216187747542578</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0227155710892111</v>
+        <v>0.02284149261891516</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.2214541715453366</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1007664572571483</v>
+        <v>0.101780125571266</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.8729957500781583</v>
+        <v>-0.8744879202051513</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01396379649445883</v>
+        <v>-0.01366158482316909</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.1982842609611599</v>
       </c>
       <c r="E55" t="n">
-        <v>0.005878288548657644</v>
+        <v>0.006783349543405539</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.8462271938917582</v>
+        <v>-0.8477036238275382</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.04217336718640975</v>
+        <v>-0.04187587757248392</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.1757759663581073</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.09138507501387576</v>
+        <v>-0.09045640373230836</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.8443305008505908</v>
+        <v>-0.8458014217194463</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.04810112319722815</v>
+        <v>-0.04789650071145905</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.1546395238555084</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.2250350386035171</v>
+        <v>-0.224238584928139</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.8322530521328506</v>
+        <v>-0.8337704065657845</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.0898803127339123</v>
+        <v>-0.08952930646986225</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.1351566007672635</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.3131328888227167</v>
+        <v>-0.3122372719426966</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.7816506984117155</v>
+        <v>-0.7834686904968178</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1217762362079494</v>
+        <v>-0.1214346740586272</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1171775814534851</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.4336933093996215</v>
+        <v>-0.432915743953699</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.8349422638015929</v>
+        <v>-0.8367508117719673</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1488902895914751</v>
+        <v>-0.1485377093083037</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1006517509561077</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.4943512842771862</v>
+        <v>-0.4935438124679589</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.8068680587540737</v>
+        <v>-0.8087915101203033</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1672764069473884</v>
+        <v>-0.1668734580523354</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.08508699672252487</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.5941551147014988</v>
+        <v>-0.5932689419362066</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8261938655254036</v>
+        <v>-0.8281425011975739</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2001529443339959</v>
+        <v>-0.1996602763490288</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.07007139497048151</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.6830903430932304</v>
+        <v>-0.6820467684158079</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8677912558535775</v>
+        <v>-0.869568323441526</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2251373498464017</v>
+        <v>-0.224594313249553</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.05562126058448223</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.7668281603464269</v>
+        <v>-0.7657310690188803</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8691181539728341</v>
+        <v>-0.870918831847602</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2387715034751083</v>
+        <v>-0.2381749502281353</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.04149406270647633</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.816694660128354</v>
+        <v>-0.8155629403801388</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.8771157451281628</v>
+        <v>-0.8790281783605431</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2658005598260837</v>
+        <v>-0.2652244688276876</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.02738637603769261</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8941938525942753</v>
+        <v>-0.8932030075574166</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.8798033827777838</v>
+        <v>-0.8815466089546243</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2776025551975962</v>
+        <v>-0.276952485300499</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.01296624623381201</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9224089323531508</v>
+        <v>-0.9213228591594533</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.8906554576095913</v>
+        <v>-0.8924797457711788</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.2920064041766188</v>
+        <v>-0.2913815185854625</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.002099636284682206</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9924795415760935</v>
+        <v>-0.9912738429291772</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.866068491925314</v>
+        <v>-0.8678770398956884</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.2856505149648066</v>
+        <v>-0.2851169224826857</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.0175680729073187</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.013544639476461</v>
+        <v>-1.012183112936536</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.9212071687540377</v>
+        <v>-0.9229889583993501</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3071138397028628</v>
+        <v>-0.3063740507158515</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.03323154948026558</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.025773194029846</v>
+        <v>-1.02454388509611</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.90200492248373</v>
+        <v>-0.903981103490523</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3242785182206468</v>
+        <v>-0.3236473365530053</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.0486459791576342</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.02960199554241</v>
+        <v>-1.028516709358273</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.9360147536376739</v>
+        <v>-0.9379224648126904</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.32402824918036</v>
+        <v>-0.3233655871302924</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.06331393209765948</v>
       </c>
       <c r="E71" t="n">
-        <v>-0.9960777492873869</v>
+        <v>-0.9949090400898211</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.9799983569537397</v>
+        <v>-0.9819635198266836</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.3204410596029157</v>
+        <v>-0.3198256181264872</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.07692506147603267</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.9329029178348625</v>
+        <v>-0.931751522847631</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.037687731768531</v>
+        <v>-1.039666273804006</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2937094928658662</v>
+        <v>-0.2931349758865914</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.08917542440311513</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.8630629024131903</v>
+        <v>-0.8620799274719381</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.074804676667923</v>
+        <v>-1.07672497999591</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2977799063135497</v>
+        <v>-0.2971046521105117</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.09947249138509093</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.8044912898809098</v>
+        <v>-0.8034760475476708</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.120138788390064</v>
+        <v>-1.122134644635874</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.2946460342430401</v>
+        <v>-0.2940054084606707</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1070416923439787</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6811905020138204</v>
+        <v>-0.6804428429312026</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.161262398962727</v>
+        <v>-1.163067798894859</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2632286125818784</v>
+        <v>-0.2624290108682576</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.1111654099684178</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.5380303148932802</v>
+        <v>-0.5371063656690768</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.223775355374744</v>
+        <v>-1.225728713104278</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2332718806652836</v>
+        <v>-0.2325431098121215</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1107885960586305</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.4176666467065379</v>
+        <v>-0.4166891808322102</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.222924598039681</v>
+        <v>-1.224893695960428</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.1955505124233127</v>
+        <v>-0.1949177567365498</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1057062360858883</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.2828487609288914</v>
+        <v>-0.2819059234752323</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.256137188508686</v>
+        <v>-1.258048047721946</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.174257181750357</v>
+        <v>-0.1736858128093248</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.09605655843371351</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.1352403957715555</v>
+        <v>-0.1343447788915354</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.277663474011595</v>
+        <v>-1.279758493462046</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.1377887327289413</v>
+        <v>-0.1373102309160659</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.08205652159977153</v>
       </c>
       <c r="E80" t="n">
-        <v>0.006065596824092426</v>
+        <v>0.006947047532020812</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.264178065189851</v>
+        <v>-1.266296694927122</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.110854117525244</v>
+        <v>-0.1105062592994365</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.06447834981647688</v>
       </c>
       <c r="E81" t="n">
-        <v>0.1591515485235547</v>
+        <v>0.1598079144971371</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.303900011734995</v>
+        <v>-1.305857304512333</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.09196903610787831</v>
+        <v>-0.09145747989345558</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.04464181879935121</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2703607215008122</v>
+        <v>0.270966718862513</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.307955472001026</v>
+        <v>-1.309745131741945</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.02017487594711134</v>
+        <v>-0.01983646183603169</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.02410957197383269</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4318991558816592</v>
+        <v>0.4323288631017743</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.286559043075626</v>
+        <v>-1.288401432457108</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.007527632307460314</v>
+        <v>-0.007045982456342303</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.004373468876680552</v>
       </c>
       <c r="E84" t="n">
-        <v>0.5648770133065052</v>
+        <v>0.5652138533984635</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.28727836981406</v>
+        <v>-1.289008216828369</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0732888054566022</v>
+        <v>0.07339898679509325</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.01284202179899</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7030034872771258</v>
+        <v>0.7033985660765723</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.235321572639046</v>
+        <v>-1.236904248865513</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1131225073593587</v>
+        <v>0.1131366735314504</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.0260416833563256</v>
       </c>
       <c r="E86" t="n">
-        <v>0.8891092121032339</v>
+        <v>0.8895625296101685</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.195519351118715</v>
+        <v>-1.197020965360436</v>
       </c>
       <c r="G86" t="n">
-        <v>0.1572753177309643</v>
+        <v>0.1571934687366567</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.03402062418047305</v>
       </c>
       <c r="E87" t="n">
-        <v>1.011796132513016</v>
+        <v>1.012189637293341</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.061715133655186</v>
+        <v>-1.063075873185551</v>
       </c>
       <c r="G87" t="n">
-        <v>0.1877499019384669</v>
+        <v>0.1875075029937866</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.03641753789627525</v>
       </c>
       <c r="E88" t="n">
-        <v>1.146873731445677</v>
+        <v>1.147196405365544</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9473295900911439</v>
+        <v>-0.9485415848145454</v>
       </c>
       <c r="G88" t="n">
-        <v>0.2193404657029717</v>
+        <v>0.2189705712094661</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.03329034499440232</v>
       </c>
       <c r="E89" t="n">
-        <v>1.251613685834389</v>
+        <v>1.251835622530492</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8623396406269527</v>
+        <v>-0.8634375189640598</v>
       </c>
       <c r="G89" t="n">
-        <v>0.2312935669101291</v>
+        <v>0.2309189503592596</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.02626664734322794</v>
       </c>
       <c r="E90" t="n">
-        <v>1.329105795214264</v>
+        <v>1.329211254495391</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.7460542559835004</v>
+        <v>-0.7470820904697097</v>
       </c>
       <c r="G90" t="n">
-        <v>0.19856026526356</v>
+        <v>0.198224999190723</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.01688578506086586</v>
       </c>
       <c r="E91" t="n">
-        <v>1.320409339569078</v>
+        <v>1.320502206697235</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.6054896263939851</v>
+        <v>-0.6064057055225821</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1936524736433445</v>
+        <v>0.1932794311115962</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.007019904304542635</v>
       </c>
       <c r="E92" t="n">
-        <v>1.306764167806522</v>
+        <v>1.306823980533132</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.4738622773752151</v>
+        <v>-0.4747028035859897</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1687231588001842</v>
+        <v>0.1684162250715306</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.002380584385622129</v>
       </c>
       <c r="E93" t="n">
-        <v>1.276083387094129</v>
+        <v>1.275959039583547</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.338203865386794</v>
+        <v>-0.3390192072916278</v>
       </c>
       <c r="G93" t="n">
-        <v>0.1618305290680085</v>
+        <v>0.1614858188804436</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.01127803361699627</v>
       </c>
       <c r="E94" t="n">
-        <v>1.195279541483037</v>
+        <v>1.195322039999312</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1890450913949769</v>
+        <v>-0.1896133122977665</v>
       </c>
       <c r="G94" t="n">
-        <v>0.1432885838190864</v>
+        <v>0.1429910942051606</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.01997223599949965</v>
       </c>
       <c r="E95" t="n">
-        <v>1.162673735385293</v>
+        <v>1.162637532945503</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.09634008720773032</v>
+        <v>-0.09658720820977452</v>
       </c>
       <c r="G95" t="n">
-        <v>0.1251133850254273</v>
+        <v>0.1246002547918833</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.03002278927706323</v>
       </c>
       <c r="E96" t="n">
-        <v>1.121901918086242</v>
+        <v>1.121857845550845</v>
       </c>
       <c r="F96" t="n">
-        <v>0.01029813424126997</v>
+        <v>0.009977034340524635</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05710788888963113</v>
+        <v>0.05669706989897165</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.04189876234830426</v>
       </c>
       <c r="E97" t="n">
-        <v>1.027054673874905</v>
+        <v>1.027136522869212</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06637099141848568</v>
+        <v>0.06616322089447399</v>
       </c>
       <c r="G97" t="n">
-        <v>0.03240680681905943</v>
+        <v>0.03203848634467508</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.05766539830975057</v>
       </c>
       <c r="E98" t="n">
-        <v>1.002413404530943</v>
+        <v>1.002304797211573</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1003792485533083</v>
+        <v>0.1004343392225539</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.007011354035673688</v>
+        <v>-0.007478837714699992</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.07677241503717804</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9777878753781933</v>
+        <v>0.9776808420779449</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1654649392190918</v>
+        <v>0.165246150561231</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.02480091814461406</v>
+        <v>-0.02527312388100427</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1033162002821747</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8873211263814363</v>
+        <v>0.8872534435592204</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1542091284826706</v>
+        <v>0.1540658927426322</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.03553572855188476</v>
+        <v>-0.03598432400145544</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.133830796468743</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8058404525481849</v>
+        <v>0.8058766549879748</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1420986253633831</v>
+        <v>0.1420498307706227</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06438435100708376</v>
+        <v>-0.06476841167268113</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1735636482439619</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6838083240928639</v>
+        <v>0.6841357200700944</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1372537945080196</v>
+        <v>0.1372742567565965</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.08218178521163064</v>
+        <v>-0.08260204831701792</v>
       </c>
     </row>
   </sheetData>
